--- a/Template.WPF/Templates/Tanafudatemplate.xlsx
+++ b/Template.WPF/Templates/Tanafudatemplate.xlsx
@@ -5,16 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l057277\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://topcon-my.sharepoint.com/personal/mkonishi_topcon_com/Documents/ドキュメント/各種案件/7.TOPPAS置き換え/2.事前調査/NeoToppas/Template.WPF/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350E7F4D-CE1D-4571-8157-1840C32A96F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A7E4304-2B84-4CE5-8555-1CFDB3B17F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="5055" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">template!$A$1:$O$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -158,7 +161,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1056648-01</t>
+    <t>***</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -393,6 +396,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -403,9 +409,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -748,11 +751,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -772,55 +777,55 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="str">
+      <c r="B1" s="12" t="str">
         <f>IFERROR(_xlfn.XLOOKUP($A$3,#REF!,#REF!,"",0),"")</f>
         <v/>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="G1" s="11"/>
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="11" t="str">
+      <c r="J1" s="12" t="str">
         <f>B1&amp;""</f>
         <v/>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
       <c r="I2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
       <c r="M2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
@@ -831,20 +836,20 @@
       <c r="D3" s="29"/>
       <c r="E3" s="21" t="str">
         <f>IF($A$3&lt;&gt;"","*"&amp;$A$3&amp;"*","")</f>
-        <v>*1056648-01*</v>
+        <v>*****</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
       <c r="I3" s="15" t="str">
         <f>A3&amp;""</f>
-        <v>1056648-01</v>
+        <v>***</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="17"/>
       <c r="M3" s="21" t="str">
         <f>E3</f>
-        <v>*1056648-01*</v>
+        <v>*****</v>
       </c>
       <c r="N3" s="22"/>
       <c r="O3" s="23"/>
@@ -869,7 +874,7 @@
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="6" t="str">
         <f>IFERROR(IF($A$3&lt;&gt;"",_xlfn.XLOOKUP($A$3,#REF!,#REF!,"",0),""),"")</f>
         <v/>
@@ -881,7 +886,7 @@
       <c r="I5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="6" t="str">
         <f>C5</f>
         <v/>
@@ -896,33 +901,33 @@
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="11"/>
       <c r="I6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
@@ -930,19 +935,19 @@
         <f>IFERROR(_xlfn.XLOOKUP($A$3,#REF!,#REF!,"",0),"")</f>
         <v/>
       </c>
-      <c r="G7" s="10" t="str">
+      <c r="G7" s="11" t="str">
         <f>IFERROR(_xlfn.XLOOKUP($A$3,#REF!,#REF!,"",0),"")</f>
         <v/>
       </c>
       <c r="I7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="10"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="9" t="str">
         <f>C7&amp;""</f>
         <v/>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="2" t="s">
         <v>8</v>
       </c>
@@ -950,7 +955,7 @@
         <f>F7&amp;""</f>
         <v/>
       </c>
-      <c r="O7" s="10"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1007,7 +1012,7 @@
       </c>
       <c r="C9" s="5">
         <f ca="1">DAY(TODAY())</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1635,11 +1640,13 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="28">
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="N7:O7"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="C7:D7"/>
@@ -1656,18 +1663,16 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
 
